--- a/liste_skins.xlsx
+++ b/liste_skins.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymartin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymartin/Documents/GitHub/SIM-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16980" windowHeight="17540"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Liste des skins</t>
   </si>
@@ -98,46 +98,85 @@
     <t>arthur15_1</t>
   </si>
   <si>
-    <t>Le Pijama</t>
-  </si>
-  <si>
-    <t>Le Gangster Rap</t>
-  </si>
-  <si>
-    <t>Le Ninja</t>
-  </si>
-  <si>
-    <t>L'Astronaute</t>
-  </si>
-  <si>
-    <t>Le Men in Black</t>
-  </si>
-  <si>
-    <t>Super-Man</t>
-  </si>
-  <si>
     <t>Batman</t>
   </si>
   <si>
-    <t>Le Bûcheron</t>
-  </si>
-  <si>
-    <t>L'Ouvrier</t>
-  </si>
-  <si>
-    <t>Le Cuisinier</t>
-  </si>
-  <si>
-    <t>Le Pompier</t>
-  </si>
-  <si>
-    <t>Le Policier</t>
-  </si>
-  <si>
-    <t>Le Docteur</t>
-  </si>
-  <si>
     <t>Le Français</t>
+  </si>
+  <si>
+    <t>On dors bien mieux avec un pijama n'est-ce pas?</t>
+  </si>
+  <si>
+    <t>Votre chemise et chandail vous vont déjà à merveille. Pourquoi voudriez vous changer une recette gagnante?</t>
+  </si>
+  <si>
+    <t>Vous etes du genre à dire tg au lieu de tan pour décrire une tangeante? Vous êtes cool et hip hop au cube? Le style Gangster Rap est fait pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baguette sous le bras et beret sur la tête. </t>
+  </si>
+  <si>
+    <t>Super-Arthur</t>
+  </si>
+  <si>
+    <t>L'Arturnaute</t>
+  </si>
+  <si>
+    <t>Le Ninjarthur</t>
+  </si>
+  <si>
+    <t>Le Gangster Rap Arthur</t>
+  </si>
+  <si>
+    <t>Le Pijamarthur</t>
+  </si>
+  <si>
+    <t>Le Docteur Arthur</t>
+  </si>
+  <si>
+    <t>Le Policier Arthur</t>
+  </si>
+  <si>
+    <t>Le Pompier Arthur</t>
+  </si>
+  <si>
+    <t>Le Cuisinier Arthur</t>
+  </si>
+  <si>
+    <t>L'Ouvrier Arthur</t>
+  </si>
+  <si>
+    <t>Le Bûcheron Arthur</t>
+  </si>
+  <si>
+    <t>Le Arthur in Black</t>
+  </si>
+  <si>
+    <t>C'est un oiseau! C'est un avion! NON! C'est super-Arthur!</t>
+  </si>
+  <si>
+    <t>Tous vos actes deviendrons héroiques! De petits pas pour Arthur, mais de grands pas pour l'humainité!</t>
+  </si>
+  <si>
+    <t>Devenez le chevalier noir de la nuit et faites reigner la justice dans votre maison!</t>
+  </si>
+  <si>
+    <t>Optez pour la classe et enfilez fièrement votre tuxedo. Vos lunettes fumées vous donnerons tout le courage nécessaire pour donner une leçon aux toutous!</t>
+  </si>
+  <si>
+    <t>Enfilez la fausse barbe et la chemise à carreaux! Votre nouvel allure robustre effraiera certainement vos adversaires les plus courageux!</t>
+  </si>
+  <si>
+    <t>Devenez le maître de la nuit et ressortez vos talents de kung fu!</t>
+  </si>
+  <si>
+    <t>Tout le monde le sait, les toutous sont gourmants. Utilisez vos talents garstonomiques pour les amadouer!</t>
+  </si>
+  <si>
+    <t>Utilisez la ruse pour déjouer vos adversaire!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les pompiez ne savez pas seulement éteindre les feux et sauver des chats dans des arbres. Il sont aussi </t>
   </si>
 </sst>
 </file>
@@ -215,7 +254,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +307,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +431,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Accent" xfId="7"/>
@@ -718,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -777,7 +824,9 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -787,13 +836,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -803,13 +854,15 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -819,13 +872,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -835,13 +890,15 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -851,13 +908,15 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -867,13 +926,15 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -883,13 +944,15 @@
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -899,13 +962,15 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -915,13 +980,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -931,13 +996,15 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -947,13 +1014,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -963,13 +1032,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -979,13 +1048,15 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -995,13 +1066,15 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">

--- a/liste_skins.xlsx
+++ b/liste_skins.xlsx
@@ -98,9 +98,6 @@
     <t>arthur15_1</t>
   </si>
   <si>
-    <t>Batman</t>
-  </si>
-  <si>
     <t>Le Français</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Le Arthur in Black</t>
   </si>
   <si>
-    <t>C'est un oiseau! C'est un avion! NON! C'est super-Arthur!</t>
-  </si>
-  <si>
     <t>Tous vos actes deviendrons héroiques! De petits pas pour Arthur, mais de grands pas pour l'humainité!</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t xml:space="preserve">Les pompiez ne savez pas seulement éteindre les feux et sauver des chats dans des arbres. Il sont aussi </t>
+  </si>
+  <si>
+    <t>Batarthur</t>
+  </si>
+  <si>
+    <t>C'est un oiseau! C'est un avion! C'est superman! NON! C'est super-Arthur!</t>
   </si>
 </sst>
 </file>
@@ -428,11 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Accent" xfId="7"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -779,14 +779,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -836,14 +836,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -854,14 +854,14 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -872,14 +872,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="10" t="s">
-        <v>46</v>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -890,14 +890,14 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="10" t="s">
-        <v>42</v>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -908,14 +908,14 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="10" t="s">
-        <v>44</v>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -926,14 +926,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -944,14 +944,14 @@
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
+      <c r="F10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -962,14 +962,14 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
-        <v>45</v>
+      <c r="F11" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -980,13 +980,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -996,14 +996,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="10" t="s">
-        <v>47</v>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1014,14 +1014,14 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1032,13 +1032,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -1048,14 +1048,14 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="10" t="s">
-        <v>48</v>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1066,14 +1066,14 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
